--- a/unique compounds DHS comparison.xlsx
+++ b/unique compounds DHS comparison.xlsx
@@ -18,10 +18,10 @@
     <t>Compound</t>
   </si>
   <si>
-    <t>DHS.Tenax</t>
-  </si>
-  <si>
-    <t>DCSE.Twister</t>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>DCSE</t>
   </si>
   <si>
     <t>Log_P</t>
@@ -33,15 +33,69 @@
     <t>Vapor_Pressure_At</t>
   </si>
   <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>1-Butanol</t>
+  </si>
+  <si>
+    <t>Hexane, 3-methyl-</t>
+  </si>
+  <si>
+    <t>Heptane</t>
+  </si>
+  <si>
     <t>1-Pentene, 2,4,4-trimethyl-</t>
   </si>
   <si>
+    <t>2-Propenoic acid, 2-methyl-, methyl ester</t>
+  </si>
+  <si>
+    <t>Methyl-2-pentanone&lt;4-&gt;</t>
+  </si>
+  <si>
+    <t>Disulfide, dimethyl</t>
+  </si>
+  <si>
+    <t>2-Pentenal, (E)-</t>
+  </si>
+  <si>
+    <t>Pentanol</t>
+  </si>
+  <si>
     <t>2,4-Pentanedione</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Heptane, 3-methylene-</t>
+  </si>
+  <si>
+    <t>2-Hexanone</t>
+  </si>
+  <si>
+    <t>Cyclopentanone</t>
+  </si>
+  <si>
     <t>3-Penten-2-one, 4-methyl-</t>
   </si>
   <si>
+    <t>Hexanal</t>
+  </si>
+  <si>
+    <t>Butyl acetate</t>
+  </si>
+  <si>
+    <t>Heptane, 2,4-dimethyl-</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Furfural</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
@@ -54,45 +108,144 @@
     <t>Octane, 4-methyl-</t>
   </si>
   <si>
+    <t>Hexenol&lt;2Z-&gt;</t>
+  </si>
+  <si>
     <t>o-Xylene</t>
   </si>
   <si>
+    <t>2(5H)-Furanone</t>
+  </si>
+  <si>
     <t>2,5-Hexanedione</t>
   </si>
   <si>
+    <t>Benzaldehyde</t>
+  </si>
+  <si>
+    <t>Benzene, 1,2,3-trimethyl-</t>
+  </si>
+  <si>
+    <t>Dimethyl trisulfide</t>
+  </si>
+  <si>
+    <t>2-Propenoic acid, 2-methyl-, butyl ester</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>Decane</t>
+  </si>
+  <si>
+    <t>Hexanoic acid</t>
+  </si>
+  <si>
+    <t>4-Cyanocyclohexene</t>
+  </si>
+  <si>
+    <t>Trimethyl benzene&lt;1,2,4-&gt;</t>
+  </si>
+  <si>
     <t>Dodecane, 2,5-dimethyl-</t>
   </si>
   <si>
     <t>Ocimene&lt;(Z)-beta-&gt;</t>
   </si>
   <si>
+    <t>Benzenemethanamine, N,N-dimethyl-</t>
+  </si>
+  <si>
+    <t>Benzene acetaldehyde</t>
+  </si>
+  <si>
+    <t>Benzene, 1-methyl-3-propyl-</t>
+  </si>
+  <si>
     <t>Heptane, 5-ethyl-2,2,3-trimethyl-</t>
   </si>
   <si>
+    <t>2H-Pyran-2-one, tetrahydro-</t>
+  </si>
+  <si>
     <t>Hexalactone&lt;gamma-&gt;</t>
   </si>
   <si>
     <t>Bergamal</t>
   </si>
   <si>
+    <t>Benzene, 2-ethyl-1,4-dimethyl-</t>
+  </si>
+  <si>
+    <t>Decane, 4-methyl-</t>
+  </si>
+  <si>
     <t>Octanol&lt;N-&gt;</t>
   </si>
   <si>
+    <t>Decane, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Acetophenone</t>
+  </si>
+  <si>
+    <t>Decane, 3-methyl-</t>
+  </si>
+  <si>
+    <t>3-Hexenedinitrile</t>
+  </si>
+  <si>
+    <t>Heptanoic acid</t>
+  </si>
+  <si>
+    <t>Undecane</t>
+  </si>
+  <si>
+    <t>Benzene, 1,2,3,5-tetramethyl-</t>
+  </si>
+  <si>
     <t>Ethyl hexanoic acid&lt;2-&gt;</t>
   </si>
   <si>
     <t>Ethyl benzoate</t>
   </si>
   <si>
+    <t>Nonanol&lt;N-&gt;</t>
+  </si>
+  <si>
+    <t>3,7-Octadiene-2,6-diol, 2,6-dimethyl-</t>
+  </si>
+  <si>
     <t>Cymen-8-ol&lt;para-&gt;</t>
   </si>
   <si>
+    <t>Octanoic acid</t>
+  </si>
+  <si>
+    <t>Dodecane</t>
+  </si>
+  <si>
+    <t>Benzenecarboxylic acid</t>
+  </si>
+  <si>
+    <t>Ethanol, 2-phenoxy-</t>
+  </si>
+  <si>
+    <t>Methenamine</t>
+  </si>
+  <si>
     <t>Benzaldehyde, 4-(1-methylethyl)-</t>
   </si>
   <si>
+    <t>1-Propanol, 3-phenoxy-</t>
+  </si>
+  <si>
+    <t>Nonanoic acid</t>
+  </si>
+  <si>
     <t>Geranyl formate</t>
   </si>
   <si>
@@ -105,15 +258,24 @@
     <t>Benzaldehyde, 4-ethoxy-</t>
   </si>
   <si>
+    <t>Vanillin</t>
+  </si>
+  <si>
     <t>1,4-Dimethylnaphthalene</t>
   </si>
   <si>
     <t>Undecanoic acid</t>
   </si>
   <si>
+    <t>Dodecanol&lt;N-&gt;</t>
+  </si>
+  <si>
     <t>Ionone&lt;(E)-beta-&gt;</t>
   </si>
   <si>
+    <t>Pentadecane</t>
+  </si>
+  <si>
     <t>Calamenene&lt;cis-&gt;</t>
   </si>
   <si>
@@ -123,12 +285,18 @@
     <t>Calacorene&lt;alpha-&gt;</t>
   </si>
   <si>
+    <t>Dodecanoic acid</t>
+  </si>
+  <si>
     <t>Hexadecane</t>
   </si>
   <si>
     <t>Cedrol</t>
   </si>
   <si>
+    <t>Benzophenone</t>
+  </si>
+  <si>
     <t>Phenol, 2,6-bis(1,1-dimethylethyl)-4-(1-methylpropyl)-</t>
   </si>
   <si>
@@ -138,187 +306,19 @@
     <t>Cadinol&lt;alpha-&gt;</t>
   </si>
   <si>
+    <t>Tridecanoic acid</t>
+  </si>
+  <si>
     <t>Cadalene</t>
   </si>
   <si>
+    <t>Dodecyl acrylate</t>
+  </si>
+  <si>
+    <t>Heptadecane</t>
+  </si>
+  <si>
     <t>Benzyl benzoate</t>
-  </si>
-  <si>
-    <t>Acetic acid</t>
-  </si>
-  <si>
-    <t>1-Butanol</t>
-  </si>
-  <si>
-    <t>Hexane, 3-methyl-</t>
-  </si>
-  <si>
-    <t>Heptane</t>
-  </si>
-  <si>
-    <t>2-Propenoic acid, 2-methyl-, methyl ester</t>
-  </si>
-  <si>
-    <t>Methyl-2-pentanone&lt;4-&gt;</t>
-  </si>
-  <si>
-    <t>Disulfide, dimethyl</t>
-  </si>
-  <si>
-    <t>2-Pentenal, (E)-</t>
-  </si>
-  <si>
-    <t>Pentanol</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Heptane, 3-methylene-</t>
-  </si>
-  <si>
-    <t>2-Hexanone</t>
-  </si>
-  <si>
-    <t>Cyclopentanone</t>
-  </si>
-  <si>
-    <t>Hexanal</t>
-  </si>
-  <si>
-    <t>Butyl acetate</t>
-  </si>
-  <si>
-    <t>Heptane, 2,4-dimethyl-</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Furfural</t>
-  </si>
-  <si>
-    <t>Hexenol&lt;2Z-&gt;</t>
-  </si>
-  <si>
-    <t>2(5H)-Furanone</t>
-  </si>
-  <si>
-    <t>Benzaldehyde</t>
-  </si>
-  <si>
-    <t>Benzene, 1,2,3-trimethyl-</t>
-  </si>
-  <si>
-    <t>Dimethyl trisulfide</t>
-  </si>
-  <si>
-    <t>2-Propenoic acid, 2-methyl-, butyl ester</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>Decane</t>
-  </si>
-  <si>
-    <t>Hexanoic acid</t>
-  </si>
-  <si>
-    <t>4-Cyanocyclohexene</t>
-  </si>
-  <si>
-    <t>Trimethyl benzene&lt;1,2,4-&gt;</t>
-  </si>
-  <si>
-    <t>Benzenemethanamine, N,N-dimethyl-</t>
-  </si>
-  <si>
-    <t>Benzene acetaldehyde</t>
-  </si>
-  <si>
-    <t>Benzene, 1-methyl-3-propyl-</t>
-  </si>
-  <si>
-    <t>2H-Pyran-2-one, tetrahydro-</t>
-  </si>
-  <si>
-    <t>Benzene, 2-ethyl-1,4-dimethyl-</t>
-  </si>
-  <si>
-    <t>Decane, 4-methyl-</t>
-  </si>
-  <si>
-    <t>Decane, 2-methyl-</t>
-  </si>
-  <si>
-    <t>Acetophenone</t>
-  </si>
-  <si>
-    <t>Decane, 3-methyl-</t>
-  </si>
-  <si>
-    <t>3-Hexenedinitrile</t>
-  </si>
-  <si>
-    <t>Heptanoic acid</t>
-  </si>
-  <si>
-    <t>Undecane</t>
-  </si>
-  <si>
-    <t>Benzene, 1,2,3,5-tetramethyl-</t>
-  </si>
-  <si>
-    <t>Nonanol&lt;N-&gt;</t>
-  </si>
-  <si>
-    <t>3,7-Octadiene-2,6-diol, 2,6-dimethyl-</t>
-  </si>
-  <si>
-    <t>Octanoic acid</t>
-  </si>
-  <si>
-    <t>Dodecane</t>
-  </si>
-  <si>
-    <t>Benzenecarboxylic acid</t>
-  </si>
-  <si>
-    <t>Ethanol, 2-phenoxy-</t>
-  </si>
-  <si>
-    <t>Methenamine</t>
-  </si>
-  <si>
-    <t>1-Propanol, 3-phenoxy-</t>
-  </si>
-  <si>
-    <t>Nonanoic acid</t>
-  </si>
-  <si>
-    <t>Vanillin</t>
-  </si>
-  <si>
-    <t>Dodecanol&lt;N-&gt;</t>
-  </si>
-  <si>
-    <t>Pentadecane</t>
-  </si>
-  <si>
-    <t>Dodecanoic acid</t>
-  </si>
-  <si>
-    <t>Benzophenone</t>
-  </si>
-  <si>
-    <t>Tridecanoic acid</t>
-  </si>
-  <si>
-    <t>Dodecyl acrylate</t>
-  </si>
-  <si>
-    <t>Heptadecane</t>
   </si>
   <si>
     <t>Salicylate&lt;2-ethylhexyl-&gt;</t>
@@ -487,10 +487,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09421000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>2.9122483333333333</v>
       </c>
       <c r="D2" t="e">
         <v>#N/A</v>
@@ -507,19 +507,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04406</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
+        <v>0.6743166666666667</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
@@ -527,19 +527,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.13213</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
+        <v>0.016088333333333333</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.047409999999999994</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>0.059255</v>
       </c>
       <c r="D5" t="e">
         <v>#N/A</v>
@@ -567,19 +567,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.042190000000000005</v>
+        <v>0.015701666666666666</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
@@ -587,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4434699999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>0.17629333333333333</v>
       </c>
       <c r="D7" t="e">
         <v>#N/A</v>
@@ -607,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06581</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0.013219999999999999</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
@@ -627,19 +627,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>2.34503</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
+        <v>0.07298333333333333</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
@@ -647,19 +647,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.034620000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#N/A</v>
+        <v>0.022058333333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>3.37727</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#N/A</v>
+        <v>0.04278166666666667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +687,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32627</v>
+        <v>0.007343333333333334</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#N/A</v>
+      <c r="D12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -707,19 +707,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07561</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
+        <v>0.04915166666666667</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
@@ -727,10 +727,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.72127</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>0.017403333333333333</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -747,19 +747,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.46448</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
+        <v>0.037185</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16">
@@ -767,19 +767,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09466</v>
+        <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
+        <v>0.33934</v>
+      </c>
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17">
@@ -787,16 +787,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.39987000000000006</v>
+        <v>0.02202166666666667</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>12.56</v>
+        <v>1.12</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>8.8</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -807,16 +807,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6792299999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>0.23990833333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>2.72</v>
+        <v>1.97</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>10.9</v>
       </c>
       <c r="F18" t="s">
         <v>108</v>
@@ -827,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.11352</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>0.023516666666666665</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -847,19 +847,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0991</v>
+        <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
+        <v>0.09506333333333333</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
@@ -867,10 +867,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.21997</v>
+        <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>0.01706</v>
       </c>
       <c r="D21" t="e">
         <v>#N/A</v>
@@ -887,16 +887,16 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.15415</v>
+        <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>0.85909</v>
       </c>
       <c r="D22" t="n">
-        <v>3.7</v>
+        <v>0.73</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>2.2</v>
       </c>
       <c r="F22" t="s">
         <v>108</v>
@@ -907,19 +907,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07891000000000001</v>
+        <v>0.007901666666666666</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
@@ -927,16 +927,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08202000000000001</v>
+        <v>0.007031666666666667</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.17</v>
+        <v>4.86</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>6.7</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -947,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>0.28711</v>
+        <v>0.07391166666666667</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
@@ -967,19 +967,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1004</v>
+        <v>0.010968333333333333</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
-      <c r="D26" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
+      <c r="D26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
@@ -987,19 +987,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>0.19599</v>
+        <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#N/A</v>
+        <v>0.029151666666666666</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1007,16 +1007,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04344</v>
+        <v>0.39083833333333334</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.86</v>
+        <v>3.14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F28" t="s">
         <v>108</v>
@@ -1027,19 +1027,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>0.71865</v>
+        <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>0.6880183333333333</v>
       </c>
       <c r="D29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#N/A</v>
+      <c r="E29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1047,7 +1047,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>2.7073</v>
+        <v>0.00577</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -1067,16 +1067,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07524999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>0.53456</v>
       </c>
       <c r="D31" t="n">
-        <v>5.85</v>
+        <v>1.64</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" t="s">
         <v>108</v>
@@ -1087,19 +1087,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9034900000000001</v>
+        <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>108</v>
+        <v>0.062135</v>
+      </c>
+      <c r="D32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33">
@@ -1107,19 +1107,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08942</v>
+        <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
+        <v>0.08698666666666667</v>
+      </c>
+      <c r="D33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34">
@@ -1127,10 +1127,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8181999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>0.1743</v>
       </c>
       <c r="D34" t="e">
         <v>#N/A</v>
@@ -1147,16 +1147,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07035</v>
+        <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>0.31798666666666664</v>
       </c>
       <c r="D35" t="n">
-        <v>4.95</v>
+        <v>1.48</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="s">
         <v>108</v>
@@ -1167,19 +1167,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14088</v>
+        <v>0.5628783333333334</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
       </c>
-      <c r="D36" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>108</v>
+      <c r="D36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37">
@@ -1187,19 +1187,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07111</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
+        <v>0.39683999999999997</v>
+      </c>
+      <c r="D37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38">
@@ -1207,16 +1207,16 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7631299999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>0.5313216666666667</v>
       </c>
       <c r="D38" t="n">
-        <v>3.97</v>
+        <v>1.84</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F38" t="s">
         <v>108</v>
@@ -1230,7 +1230,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>17.473489999999998</v>
+        <v>0.234635</v>
       </c>
       <c r="D39" t="e">
         <v>#N/A</v>
@@ -1250,16 +1250,16 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.0459</v>
-      </c>
-      <c r="D40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F40" t="e">
-        <v>#N/A</v>
+        <v>0.07933833333333333</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -1267,10 +1267,10 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>0.054378333333333334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09653</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="e">
         <v>#N/A</v>
@@ -1287,19 +1287,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>0.012601666666666666</v>
       </c>
       <c r="C42" t="n">
-        <v>0.35553</v>
-      </c>
-      <c r="D42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F42" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.05776</v>
+        <v>0.046386666666666666</v>
       </c>
       <c r="D43" t="e">
         <v>#N/A</v>
@@ -1330,16 +1330,16 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07932</v>
-      </c>
-      <c r="D44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F44" t="e">
-        <v>#N/A</v>
+        <v>0.06401</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -1350,7 +1350,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4379</v>
+        <v>0.06977166666666666</v>
       </c>
       <c r="D45" t="e">
         <v>#N/A</v>
@@ -1367,19 +1367,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>0.12021166666666666</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13235000000000002</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
@@ -1390,16 +1390,16 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.25669</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
+        <v>0.173695</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48">
@@ -1407,19 +1407,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>0.07741333333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.29491</v>
-      </c>
-      <c r="D48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F48" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49">
@@ -1427,19 +1427,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>0.015776666666666668</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10442</v>
-      </c>
-      <c r="D49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F49" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50">
@@ -1450,7 +1450,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22310999999999998</v>
+        <v>0.04521</v>
       </c>
       <c r="D50" t="e">
         <v>#N/A</v>
@@ -1470,7 +1470,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>2.03604</v>
+        <v>0.041755</v>
       </c>
       <c r="D51" t="e">
         <v>#N/A</v>
@@ -1487,16 +1487,16 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0</v>
+        <v>0.066645</v>
       </c>
       <c r="C52" t="n">
-        <v>1.43945</v>
+        <v>0.0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.97</v>
+        <v>12.56</v>
       </c>
       <c r="E52" t="n">
-        <v>10.9</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="s">
         <v>108</v>
@@ -1510,7 +1510,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1411</v>
+        <v>0.06213</v>
       </c>
       <c r="D53" t="e">
         <v>#N/A</v>
@@ -1530,16 +1530,16 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.57038</v>
-      </c>
-      <c r="D54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F54" t="e">
-        <v>#N/A</v>
+        <v>0.6104816666666666</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55">
@@ -1550,7 +1550,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.10235999999999999</v>
+        <v>0.07575333333333334</v>
       </c>
       <c r="D55" t="e">
         <v>#N/A</v>
@@ -1570,16 +1570,16 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>5.154539999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
+        <v>0.039983333333333336</v>
+      </c>
+      <c r="D56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57">
@@ -1590,13 +1590,13 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17490999999999998</v>
+        <v>0.22517333333333334</v>
       </c>
       <c r="D57" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F57" t="s">
         <v>108</v>
@@ -1610,16 +1610,16 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>4.12811</v>
+        <v>0.40307</v>
       </c>
       <c r="D58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
+      <c r="E58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59">
@@ -1630,16 +1630,16 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>3.2073600000000004</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>108</v>
+        <v>0.07102166666666666</v>
+      </c>
+      <c r="D59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60">
@@ -1647,19 +1647,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0</v>
+        <v>0.113205</v>
       </c>
       <c r="C60" t="n">
-        <v>0.37281000000000003</v>
-      </c>
-      <c r="D60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F60" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="61">
@@ -1667,10 +1667,10 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0</v>
+        <v>0.01892</v>
       </c>
       <c r="C61" t="n">
-        <v>0.52192</v>
+        <v>0.0</v>
       </c>
       <c r="D61" t="e">
         <v>#N/A</v>
@@ -1690,16 +1690,16 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1.0458</v>
-      </c>
-      <c r="D62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F62" t="e">
-        <v>#N/A</v>
+        <v>0.075615</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="63">
@@ -1710,13 +1710,13 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>1.9079200000000003</v>
+        <v>0.21901833333333334</v>
       </c>
       <c r="D63" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="F63" t="s">
         <v>108</v>
@@ -1727,19 +1727,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0</v>
+        <v>0.016516666666666666</v>
       </c>
       <c r="C64" t="n">
-        <v>2.3810400000000005</v>
-      </c>
-      <c r="D64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F64" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65">
@@ -1750,16 +1750,16 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>3.1879299999999997</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>108</v>
+        <v>0.43161666666666665</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66">
@@ -1770,16 +1770,16 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>1.40781</v>
-      </c>
-      <c r="D66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F66" t="e">
-        <v>#N/A</v>
+        <v>0.1949</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67">
@@ -1790,16 +1790,16 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.47602999999999995</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>108</v>
+        <v>0.09793833333333334</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68">
@@ -1810,7 +1810,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27832</v>
+        <v>0.08324833333333334</v>
       </c>
       <c r="D68" t="e">
         <v>#N/A</v>
@@ -1830,16 +1830,16 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.38406</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F69" t="s">
-        <v>108</v>
+        <v>0.46352333333333334</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70">
@@ -1847,10 +1847,10 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0</v>
+        <v>0.03666166666666667</v>
       </c>
       <c r="C70" t="n">
-        <v>0.41863000000000006</v>
+        <v>0.0</v>
       </c>
       <c r="D70" t="e">
         <v>#N/A</v>
@@ -1870,7 +1870,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1.04217</v>
+        <v>0.11217333333333333</v>
       </c>
       <c r="D71" t="e">
         <v>#N/A</v>
@@ -1890,7 +1890,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27126</v>
+        <v>0.5295966666666666</v>
       </c>
       <c r="D72" t="e">
         <v>#N/A</v>
@@ -1907,19 +1907,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0</v>
+        <v>0.025691666666666668</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25053000000000003</v>
-      </c>
-      <c r="D73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F73" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="74">
@@ -1927,19 +1927,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0</v>
+        <v>0.013151666666666666</v>
       </c>
       <c r="C74" t="n">
-        <v>0.37278</v>
-      </c>
-      <c r="D74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F74" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="75">
@@ -1947,16 +1947,16 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0</v>
+        <v>0.01367</v>
       </c>
       <c r="C75" t="n">
-        <v>3.66289</v>
+        <v>0.0</v>
       </c>
       <c r="D75" t="n">
-        <v>1.66</v>
+        <v>3.17</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="F75" t="s">
         <v>108</v>
@@ -1967,10 +1967,10 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0</v>
+        <v>0.04785166666666667</v>
       </c>
       <c r="C76" t="n">
-        <v>0.45452</v>
+        <v>0.0</v>
       </c>
       <c r="D76" t="e">
         <v>#N/A</v>
@@ -1990,16 +1990,16 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2399</v>
+        <v>0.06961</v>
       </c>
       <c r="D77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F77" t="e">
-        <v>#N/A</v>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="78">
@@ -2007,16 +2007,16 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0</v>
+        <v>0.016733333333333333</v>
       </c>
       <c r="C78" t="n">
-        <v>1.35104</v>
+        <v>0.0</v>
       </c>
       <c r="D78" t="n">
-        <v>2.19</v>
+        <v>4.37</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="F78" t="s">
         <v>108</v>
@@ -2027,10 +2027,10 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0</v>
+        <v>0.032665</v>
       </c>
       <c r="C79" t="n">
-        <v>2.41842</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="e">
         <v>#N/A</v>
@@ -2050,16 +2050,16 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.42613</v>
-      </c>
-      <c r="D80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F80" t="e">
-        <v>#N/A</v>
+        <v>0.6572</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81">
@@ -2067,13 +2067,13 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0</v>
+        <v>0.00724</v>
       </c>
       <c r="C81" t="n">
-        <v>0.45369000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="D81" t="n">
-        <v>3.53</v>
+        <v>3.86</v>
       </c>
       <c r="E81" t="n">
         <v>0.0</v>
@@ -2090,10 +2090,10 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>1.31411</v>
+        <v>0.38645</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04</v>
+        <v>8.73</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
@@ -2107,10 +2107,10 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0</v>
+        <v>0.11977499999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>2.5896999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="D83" t="e">
         <v>#N/A</v>
@@ -2127,19 +2127,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0</v>
+        <v>0.45121666666666665</v>
       </c>
       <c r="C84" t="n">
-        <v>1.1694</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F84" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85">
@@ -2147,19 +2147,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0</v>
+        <v>0.012541666666666666</v>
       </c>
       <c r="C85" t="n">
-        <v>0.58763</v>
-      </c>
-      <c r="D85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F85" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86">
@@ -2170,16 +2170,16 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.49949</v>
-      </c>
-      <c r="D86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F86" t="e">
-        <v>#N/A</v>
+        <v>0.787555</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87">
@@ -2187,19 +2187,19 @@
         <v>91</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0</v>
+        <v>0.15058166666666667</v>
       </c>
       <c r="C87" t="n">
-        <v>2.78114</v>
-      </c>
-      <c r="D87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F87" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="88">
@@ -2207,19 +2207,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0</v>
+        <v>0.014903333333333334</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6730400000000001</v>
-      </c>
-      <c r="D88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F88" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="89">
@@ -2230,16 +2230,16 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>3.1775799999999994</v>
-      </c>
-      <c r="D89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F89" t="e">
-        <v>#N/A</v>
+        <v>0.03979833333333333</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="90">
@@ -2247,19 +2247,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0</v>
+        <v>0.13636666666666666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.41766</v>
+        <v>0.0</v>
       </c>
       <c r="D90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>108</v>
+      <c r="E90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F90" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91">
@@ -2267,13 +2267,13 @@
         <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0</v>
+        <v>0.011725</v>
       </c>
       <c r="C91" t="n">
-        <v>3.9432</v>
+        <v>0.0</v>
       </c>
       <c r="D91" t="n">
-        <v>5.13</v>
+        <v>4.95</v>
       </c>
       <c r="E91" t="n">
         <v>0.0</v>
@@ -2287,13 +2287,13 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0</v>
+        <v>0.02348</v>
       </c>
       <c r="C92" t="n">
-        <v>2.3186999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D92" t="n">
-        <v>8.73</v>
+        <v>4.95</v>
       </c>
       <c r="E92" t="n">
         <v>0.0</v>
@@ -2310,16 +2310,16 @@
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>4.7253300000000005</v>
-      </c>
-      <c r="D93" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>108</v>
+        <v>0.03630833333333333</v>
+      </c>
+      <c r="D93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94">
@@ -2327,13 +2327,13 @@
         <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0</v>
+        <v>0.011851666666666667</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23879</v>
+        <v>0.0</v>
       </c>
       <c r="D94" t="n">
-        <v>3.18</v>
+        <v>5.71</v>
       </c>
       <c r="E94" t="n">
         <v>0.0</v>
@@ -2350,7 +2350,7 @@
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.21785</v>
+        <v>2.024775</v>
       </c>
       <c r="D95" t="e">
         <v>#N/A</v>
@@ -2370,7 +2370,7 @@
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>12.14865</v>
+        <v>0.16669333333333333</v>
       </c>
       <c r="D96" t="e">
         <v>#N/A</v>
@@ -2387,19 +2387,19 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0</v>
+        <v>0.12718833333333332</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0001600000000002</v>
-      </c>
-      <c r="D97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F97" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="98">
@@ -2410,7 +2410,7 @@
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.27621999999999997</v>
+        <v>0.04603666666666666</v>
       </c>
       <c r="D98" t="n">
         <v>5.77</v>
@@ -2430,7 +2430,7 @@
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>3.0674499999999996</v>
+        <v>0.5112416666666667</v>
       </c>
       <c r="D99" t="n">
         <v>7.25</v>
@@ -2450,7 +2450,7 @@
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.12288</v>
+        <v>0.02048</v>
       </c>
       <c r="D100" t="n">
         <v>5.82</v>
@@ -2470,7 +2470,7 @@
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.84991</v>
+        <v>0.14165166666666668</v>
       </c>
       <c r="D101" t="e">
         <v>#N/A</v>
@@ -2490,7 +2490,7 @@
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>2.68283</v>
+        <v>0.44713833333333336</v>
       </c>
       <c r="D102" t="e">
         <v>#N/A</v>
@@ -2510,7 +2510,7 @@
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.41600000000000004</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="D103" t="n">
         <v>9.21</v>
@@ -2557,53 +2557,53 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04406</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
+        <v>0.09240000000000001</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04344</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
+        <v>0.016088333333333333</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B4" t="n">
-        <v>2.68283</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>7.5872</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5544</v>
+        <v>0.10934666666666668</v>
       </c>
       <c r="D5" t="e">
         <v>#N/A</v>
@@ -2637,33 +2637,33 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09653</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>0.022058333333333333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>45.523199999999996</v>
+        <v>0.15388833333333332</v>
       </c>
       <c r="D7" t="e">
         <v>#N/A</v>
@@ -2677,53 +2677,53 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0.007343333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.65608</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.13235000000000002</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
+        <v>0.04915166666666667</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.92333</v>
+        <v>0.017403333333333333</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29491</v>
+        <v>0.044006666666666666</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10442</v>
+        <v>0.01706</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.26404000000000005</v>
+        <v>2.468558333333333</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10235999999999999</v>
+        <v>1.61605</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.81135</v>
+        <v>0.29528333333333334</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -2837,79 +2837,79 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>9.6963</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#N/A</v>
+        <v>0.03707</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.7717</v>
-      </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
+        <v>0.029151666666666666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22242</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>108</v>
+        <v>1.9779916666666666</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.17490999999999998</v>
+        <v>0.012601666666666666</v>
       </c>
       <c r="D19" t="n">
-        <v>1.75</v>
+        <v>4.7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2917,39 +2917,39 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.86795</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
+        <v>0.42159</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07561</v>
+        <v>0.123785</v>
       </c>
       <c r="D21" t="n">
-        <v>4.7</v>
+        <v>1.56</v>
       </c>
       <c r="E21" t="n">
-        <v>1.6</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="s">
         <v>108</v>
@@ -2957,36 +2957,36 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.52954</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
+        <v>0.058986666666666666</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.74271</v>
+        <v>0.03815</v>
       </c>
       <c r="D23" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
@@ -2997,36 +2997,36 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35392</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#N/A</v>
+        <v>0.11914999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2289</v>
+        <v>0.21901833333333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
@@ -3037,19 +3037,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7149</v>
+        <v>0.016516666666666666</v>
       </c>
       <c r="D26" t="n">
-        <v>1.87</v>
+        <v>2.19</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F26" t="s">
         <v>108</v>
@@ -3057,19 +3057,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.31411</v>
+        <v>0.1644</v>
       </c>
       <c r="D27" t="n">
-        <v>1.04</v>
+        <v>3.17</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="F27" t="s">
         <v>108</v>
@@ -3077,19 +3077,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0991</v>
+        <v>0.025691666666666668</v>
       </c>
       <c r="D28" t="n">
-        <v>2.19</v>
+        <v>3.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="s">
         <v>108</v>
@@ -3097,19 +3097,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0</v>
+        <v>0.00724</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9863999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.17</v>
+        <v>3.86</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="s">
         <v>108</v>
@@ -3117,33 +3117,33 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.15415</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
+        <v>0.023968333333333335</v>
+      </c>
+      <c r="D30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.14381</v>
+        <v>5.771193333333334</v>
       </c>
       <c r="D31" t="e">
         <v>#N/A</v>
@@ -3157,36 +3157,36 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>34.62716</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
+        <v>0.02723</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.16338</v>
+        <v>0.484825</v>
       </c>
       <c r="D33" t="n">
-        <v>6.54</v>
+        <v>5.32</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
@@ -3197,56 +3197,56 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.90895</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>108</v>
+        <v>0.13019166666666665</v>
+      </c>
+      <c r="D34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.78115</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#N/A</v>
+        <v>0.03979833333333333</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.23879</v>
+        <v>0.011725</v>
       </c>
       <c r="D36" t="n">
-        <v>3.18</v>
+        <v>4.95</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07035</v>
+        <v>0.153735</v>
       </c>
       <c r="D37" t="n">
-        <v>4.95</v>
+        <v>2.12</v>
       </c>
       <c r="E37" t="n">
         <v>0.0</v>
@@ -3277,22 +3277,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>0.44713833333333336</v>
       </c>
       <c r="C38" t="n">
-        <v>0.92241</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/unique compounds DHS comparison.xlsx
+++ b/unique compounds DHS comparison.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
   <si>
     <t>Compound</t>
   </si>
@@ -36,51 +36,39 @@
     <t>Acetic acid</t>
   </si>
   <si>
-    <t>1-Butanol</t>
-  </si>
-  <si>
     <t>Hexane, 3-methyl-</t>
   </si>
   <si>
     <t>Heptane</t>
   </si>
   <si>
-    <t>1-Pentene, 2,4,4-trimethyl-</t>
-  </si>
-  <si>
     <t>2-Propenoic acid, 2-methyl-, methyl ester</t>
   </si>
   <si>
+    <t>2-Pentenal, (E)-</t>
+  </si>
+  <si>
+    <t>Pentanol</t>
+  </si>
+  <si>
+    <t>2,4-Pentanedione</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Heptane, 3-methylene-</t>
+  </si>
+  <si>
+    <t>2-Hexanone</t>
+  </si>
+  <si>
     <t>Methyl-2-pentanone&lt;4-&gt;</t>
   </si>
   <si>
     <t>Disulfide, dimethyl</t>
   </si>
   <si>
-    <t>2-Pentenal, (E)-</t>
-  </si>
-  <si>
-    <t>Pentanol</t>
-  </si>
-  <si>
-    <t>2,4-Pentanedione</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Heptane, 3-methylene-</t>
-  </si>
-  <si>
-    <t>2-Hexanone</t>
-  </si>
-  <si>
-    <t>Cyclopentanone</t>
-  </si>
-  <si>
-    <t>3-Penten-2-one, 4-methyl-</t>
-  </si>
-  <si>
     <t>Hexanal</t>
   </si>
   <si>
@@ -108,307 +96,274 @@
     <t>Octane, 4-methyl-</t>
   </si>
   <si>
+    <t>2,5-Hexanedione</t>
+  </si>
+  <si>
+    <t>Benzaldehyde</t>
+  </si>
+  <si>
+    <t>Dimethyl trisulfide</t>
+  </si>
+  <si>
+    <t>2-Propenoic acid, 2-methyl-, butyl ester</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Decane</t>
+  </si>
+  <si>
+    <t>Hexanoic acid</t>
+  </si>
+  <si>
+    <t>4-Cyanocyclohexene</t>
+  </si>
+  <si>
+    <t>Ocimene&lt;(Z)-beta-&gt;</t>
+  </si>
+  <si>
+    <t>Benzenemethanamine, N,N-dimethyl-</t>
+  </si>
+  <si>
+    <t>Benzene acetaldehyde</t>
+  </si>
+  <si>
+    <t>Dodecane, 2,5-dimethyl-</t>
+  </si>
+  <si>
+    <t>Heptane, 5-ethyl-2,2,3-trimethyl-</t>
+  </si>
+  <si>
+    <t>Hexalactone&lt;gamma-&gt;</t>
+  </si>
+  <si>
+    <t>Bergamal</t>
+  </si>
+  <si>
+    <t>Decane, 4-methyl-</t>
+  </si>
+  <si>
+    <t>Decane, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Acetophenone</t>
+  </si>
+  <si>
+    <t>Decane, 3-methyl-</t>
+  </si>
+  <si>
+    <t>Heptanoic acid</t>
+  </si>
+  <si>
+    <t>Undecane</t>
+  </si>
+  <si>
+    <t>Benzene, 1,2,3,5-tetramethyl-</t>
+  </si>
+  <si>
+    <t>Ethyl benzoate</t>
+  </si>
+  <si>
+    <t>Nonanol&lt;N-&gt;</t>
+  </si>
+  <si>
+    <t>3,7-Octadiene-2,6-diol, 2,6-dimethyl-</t>
+  </si>
+  <si>
+    <t>Cymen-8-ol&lt;para-&gt;</t>
+  </si>
+  <si>
+    <t>Octanoic acid</t>
+  </si>
+  <si>
+    <t>Dodecane</t>
+  </si>
+  <si>
+    <t>Benzenecarboxylic acid</t>
+  </si>
+  <si>
+    <t>Ethanol, 2-phenoxy-</t>
+  </si>
+  <si>
+    <t>Methenamine</t>
+  </si>
+  <si>
+    <t>Benzaldehyde, 4-(1-methylethyl)-</t>
+  </si>
+  <si>
+    <t>1-Propanol, 3-phenoxy-</t>
+  </si>
+  <si>
+    <t>Nonanoic acid</t>
+  </si>
+  <si>
+    <t>Geranyl formate</t>
+  </si>
+  <si>
+    <t>Phenol, p-tert-butyl-</t>
+  </si>
+  <si>
+    <t>Phenol, m-tert-butyl-</t>
+  </si>
+  <si>
+    <t>Benzaldehyde, 4-ethoxy-</t>
+  </si>
+  <si>
+    <t>Vanillin</t>
+  </si>
+  <si>
+    <t>1,4-Dimethylnaphthalene</t>
+  </si>
+  <si>
+    <t>Undecanoic acid</t>
+  </si>
+  <si>
+    <t>Dodecanol&lt;N-&gt;</t>
+  </si>
+  <si>
+    <t>Ionone&lt;(E)-beta-&gt;</t>
+  </si>
+  <si>
+    <t>Pentadecane</t>
+  </si>
+  <si>
+    <t>Calamenene&lt;cis-&gt;</t>
+  </si>
+  <si>
+    <t>Benzoic acid, 4-ethoxy-, ethyl ester</t>
+  </si>
+  <si>
+    <t>Calacorene&lt;alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Dodecanoic acid</t>
+  </si>
+  <si>
+    <t>Cedrol</t>
+  </si>
+  <si>
+    <t>Phenol, 2,6-bis(1,1-dimethylethyl)-4-(1-methylpropyl)-</t>
+  </si>
+  <si>
+    <t>Murrolol&lt;epi-alpha-&gt; (=tau-muurolol)</t>
+  </si>
+  <si>
+    <t>Cadinol&lt;alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Tridecanoic acid</t>
+  </si>
+  <si>
+    <t>Cadalene</t>
+  </si>
+  <si>
+    <t>Dodecyl acrylate</t>
+  </si>
+  <si>
+    <t>Heptadecane</t>
+  </si>
+  <si>
+    <t>Benzyl benzoate</t>
+  </si>
+  <si>
+    <t>Salicylate&lt;2-ethylhexyl-&gt;</t>
+  </si>
+  <si>
+    <t>Hexadecanol&lt;N-&gt;</t>
+  </si>
+  <si>
+    <t>Homomenthyl salicylate</t>
+  </si>
+  <si>
+    <t>Nonadecane</t>
+  </si>
+  <si>
+    <t>1-Hexadecanamine, N,N-dimethyl-</t>
+  </si>
+  <si>
+    <t>Octadecanol acetate</t>
+  </si>
+  <si>
+    <t>25°C</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>MeJA</t>
+  </si>
+  <si>
+    <t>Isobutyronitrile</t>
+  </si>
+  <si>
+    <t>Butanenitrile, 3-methyl-</t>
+  </si>
+  <si>
+    <t>1-Butanol, 3-methyl-</t>
+  </si>
+  <si>
+    <t>Propyl aldoxime, 2-methyl-, anti-</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Butyl aldoxime, 3-methyl-, syn-</t>
+  </si>
+  <si>
+    <t>Butyl aldoxime, 2-methyl-, syn-</t>
+  </si>
+  <si>
+    <t>Butyl aldoxime, 2-methyl-, anti-</t>
+  </si>
+  <si>
     <t>Hexenol&lt;2Z-&gt;</t>
   </si>
   <si>
-    <t>o-Xylene</t>
-  </si>
-  <si>
-    <t>2(5H)-Furanone</t>
-  </si>
-  <si>
-    <t>2,5-Hexanedione</t>
-  </si>
-  <si>
-    <t>Benzaldehyde</t>
-  </si>
-  <si>
-    <t>Benzene, 1,2,3-trimethyl-</t>
-  </si>
-  <si>
-    <t>Dimethyl trisulfide</t>
-  </si>
-  <si>
-    <t>2-Propenoic acid, 2-methyl-, butyl ester</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Decane</t>
-  </si>
-  <si>
-    <t>Hexanoic acid</t>
-  </si>
-  <si>
-    <t>4-Cyanocyclohexene</t>
-  </si>
-  <si>
-    <t>Trimethyl benzene&lt;1,2,4-&gt;</t>
-  </si>
-  <si>
-    <t>Dodecane, 2,5-dimethyl-</t>
-  </si>
-  <si>
-    <t>Ocimene&lt;(Z)-beta-&gt;</t>
-  </si>
-  <si>
-    <t>Benzenemethanamine, N,N-dimethyl-</t>
-  </si>
-  <si>
-    <t>Benzene acetaldehyde</t>
-  </si>
-  <si>
-    <t>Benzene, 1-methyl-3-propyl-</t>
-  </si>
-  <si>
-    <t>Heptane, 5-ethyl-2,2,3-trimethyl-</t>
-  </si>
-  <si>
-    <t>2H-Pyran-2-one, tetrahydro-</t>
-  </si>
-  <si>
-    <t>Hexalactone&lt;gamma-&gt;</t>
-  </si>
-  <si>
-    <t>Bergamal</t>
-  </si>
-  <si>
-    <t>Benzene, 2-ethyl-1,4-dimethyl-</t>
-  </si>
-  <si>
-    <t>Decane, 4-methyl-</t>
-  </si>
-  <si>
-    <t>Octanol&lt;N-&gt;</t>
-  </si>
-  <si>
-    <t>Decane, 2-methyl-</t>
-  </si>
-  <si>
-    <t>Acetophenone</t>
-  </si>
-  <si>
-    <t>Decane, 3-methyl-</t>
-  </si>
-  <si>
-    <t>3-Hexenedinitrile</t>
-  </si>
-  <si>
-    <t>Heptanoic acid</t>
-  </si>
-  <si>
-    <t>Undecane</t>
-  </si>
-  <si>
-    <t>Benzene, 1,2,3,5-tetramethyl-</t>
-  </si>
-  <si>
-    <t>Ethyl hexanoic acid&lt;2-&gt;</t>
-  </si>
-  <si>
-    <t>Ethyl benzoate</t>
-  </si>
-  <si>
-    <t>Nonanol&lt;N-&gt;</t>
-  </si>
-  <si>
-    <t>3,7-Octadiene-2,6-diol, 2,6-dimethyl-</t>
-  </si>
-  <si>
-    <t>Cymen-8-ol&lt;para-&gt;</t>
-  </si>
-  <si>
-    <t>Octanoic acid</t>
-  </si>
-  <si>
-    <t>Dodecane</t>
-  </si>
-  <si>
-    <t>Benzenecarboxylic acid</t>
-  </si>
-  <si>
-    <t>Ethanol, 2-phenoxy-</t>
-  </si>
-  <si>
-    <t>Methenamine</t>
-  </si>
-  <si>
-    <t>Benzaldehyde, 4-(1-methylethyl)-</t>
-  </si>
-  <si>
-    <t>1-Propanol, 3-phenoxy-</t>
-  </si>
-  <si>
-    <t>Nonanoic acid</t>
-  </si>
-  <si>
-    <t>Geranyl formate</t>
-  </si>
-  <si>
-    <t>Phenol, p-tert-butyl-</t>
-  </si>
-  <si>
-    <t>Phenol, m-tert-butyl-</t>
-  </si>
-  <si>
-    <t>Benzaldehyde, 4-ethoxy-</t>
-  </si>
-  <si>
-    <t>Vanillin</t>
-  </si>
-  <si>
-    <t>1,4-Dimethylnaphthalene</t>
-  </si>
-  <si>
-    <t>Undecanoic acid</t>
-  </si>
-  <si>
-    <t>Dodecanol&lt;N-&gt;</t>
-  </si>
-  <si>
-    <t>Ionone&lt;(E)-beta-&gt;</t>
-  </si>
-  <si>
-    <t>Pentadecane</t>
-  </si>
-  <si>
-    <t>Calamenene&lt;cis-&gt;</t>
-  </si>
-  <si>
-    <t>Benzoic acid, 4-ethoxy-, ethyl ester</t>
-  </si>
-  <si>
-    <t>Calacorene&lt;alpha-&gt;</t>
-  </si>
-  <si>
-    <t>Dodecanoic acid</t>
-  </si>
-  <si>
-    <t>Hexadecane</t>
-  </si>
-  <si>
-    <t>Cedrol</t>
+    <t>1,5-Heptadiene, 2,6-dimethyl-</t>
+  </si>
+  <si>
+    <t>Butyl aldoxime, 3-methyl-, anti</t>
+  </si>
+  <si>
+    <t>Ocimene&lt;(E)-beta-&gt;</t>
+  </si>
+  <si>
+    <t>Linalool oxide &lt;cis-&gt; (furanoid)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Linalool oxide&lt;cis-&gt;(pyanoid)</t>
+  </si>
+  <si>
+    <t>Linalool oxide&lt;trans-&gt;(pyranoid)</t>
+  </si>
+  <si>
+    <t>Geranial</t>
+  </si>
+  <si>
+    <t>Muurolene&lt;alpha-&gt;</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Cadinene&lt;delta-&gt;</t>
+  </si>
+  <si>
+    <t>Nerolidol&lt;E-&gt;</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>Benzophenone</t>
-  </si>
-  <si>
-    <t>Phenol, 2,6-bis(1,1-dimethylethyl)-4-(1-methylpropyl)-</t>
-  </si>
-  <si>
-    <t>Murrolol&lt;epi-alpha-&gt; (=tau-muurolol)</t>
-  </si>
-  <si>
-    <t>Cadinol&lt;alpha-&gt;</t>
-  </si>
-  <si>
-    <t>Tridecanoic acid</t>
-  </si>
-  <si>
-    <t>Cadalene</t>
-  </si>
-  <si>
-    <t>Dodecyl acrylate</t>
-  </si>
-  <si>
-    <t>Heptadecane</t>
-  </si>
-  <si>
-    <t>Benzyl benzoate</t>
-  </si>
-  <si>
-    <t>Salicylate&lt;2-ethylhexyl-&gt;</t>
-  </si>
-  <si>
-    <t>Hexadecanol&lt;N-&gt;</t>
-  </si>
-  <si>
-    <t>Homomenthyl salicylate</t>
-  </si>
-  <si>
-    <t>Nonadecane</t>
-  </si>
-  <si>
-    <t>1-Hexadecanamine, N,N-dimethyl-</t>
-  </si>
-  <si>
-    <t>Octadecanol acetate</t>
-  </si>
-  <si>
-    <t>25°C</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>MeJA</t>
-  </si>
-  <si>
-    <t>Isobutyronitrile</t>
-  </si>
-  <si>
-    <t>Butanenitrile, 3-methyl-</t>
-  </si>
-  <si>
-    <t>1-Butanol, 3-methyl-</t>
-  </si>
-  <si>
-    <t>Propyl aldoxime, 2-methyl-, anti-</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Butyl aldoxime, 3-methyl-, syn-</t>
-  </si>
-  <si>
-    <t>Butyl aldoxime, 2-methyl-, syn-</t>
-  </si>
-  <si>
-    <t>Butyl aldoxime, 2-methyl-, anti-</t>
-  </si>
-  <si>
-    <t>1,5-Heptadiene, 2,6-dimethyl-</t>
-  </si>
-  <si>
-    <t>Butyl aldoxime, 3-methyl-, anti</t>
-  </si>
-  <si>
-    <t>Ocimene&lt;(E)-beta-&gt;</t>
-  </si>
-  <si>
-    <t>Linalool oxide &lt;cis-&gt; (furanoid)</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Linalool oxide&lt;cis-&gt;(pyanoid)</t>
-  </si>
-  <si>
-    <t>Linalool oxide&lt;trans-&gt;(pyranoid)</t>
-  </si>
-  <si>
-    <t>Geranial</t>
-  </si>
-  <si>
-    <t>Muurolene&lt;alpha-&gt;</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Cadinene&lt;delta-&gt;</t>
-  </si>
-  <si>
-    <t>Nerolidol&lt;E-&gt;</t>
-  </si>
-  <si>
-    <t>49</t>
   </si>
   <si>
     <t>Methyl jasmonate&lt;Z-&gt;</t>
@@ -487,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>2.9122483333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>2.9122483333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="e">
         <v>#N/A</v>
@@ -507,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>0.016088333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6743166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="e">
         <v>#N/A</v>
@@ -527,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>0.059255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.016088333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
@@ -547,10 +502,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>0.17629333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.059255</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="e">
         <v>#N/A</v>
@@ -567,19 +522,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.015701666666666666</v>
+        <v>0.022058333333333333</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+      <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +542,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>0.04278166666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.17629333333333333</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -610,16 +565,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.013219999999999999</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#N/A</v>
+        <v>0.007343333333333334</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -627,10 +582,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>0.04915166666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07298333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="e">
         <v>#N/A</v>
@@ -647,19 +602,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>0.017403333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.022058333333333333</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +622,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>0.037185</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04278166666666667</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +642,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.007343333333333334</v>
+        <v>0.013219999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
+      <c r="D12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
@@ -707,10 +662,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>0.07298333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04915166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -727,19 +682,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>0.23990833333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.017403333333333333</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -747,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0</v>
+        <v>0.023516666666666665</v>
       </c>
       <c r="C15" t="n">
-        <v>0.037185</v>
+        <v>0.0</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -767,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0</v>
+        <v>0.09506333333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.33934</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="e">
         <v>#N/A</v>
@@ -787,19 +742,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02202166666666667</v>
+        <v>0.01706</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
-      <c r="D17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>108</v>
+      <c r="D17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18">
@@ -807,19 +762,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>0.85909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23990833333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.97</v>
+        <v>0.73</v>
       </c>
       <c r="E18" t="n">
-        <v>10.9</v>
+        <v>2.2</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.023516666666666665</v>
+        <v>0.007901666666666666</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -850,16 +805,16 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09506333333333333</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
+        <v>0.007031666666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -870,7 +825,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01706</v>
+        <v>0.07391166666666667</v>
       </c>
       <c r="D21" t="e">
         <v>#N/A</v>
@@ -890,16 +845,16 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.85909</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
+        <v>0.010968333333333333</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23">
@@ -907,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007901666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>0.00577</v>
       </c>
       <c r="D23" t="e">
         <v>#N/A</v>
@@ -927,19 +882,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007031666666666667</v>
+        <v>0.53456</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4.86</v>
+        <v>1.64</v>
       </c>
       <c r="E24" t="n">
-        <v>6.7</v>
+        <v>1.0</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -947,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07391166666666667</v>
+        <v>0.08698666666666667</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
@@ -967,7 +922,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>0.010968333333333333</v>
+        <v>0.1743</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -987,19 +942,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>0.31798666666666664</v>
       </c>
       <c r="C27" t="n">
-        <v>0.029151666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -1007,19 +962,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>0.39083833333333334</v>
+        <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
+        <v>0.5628783333333334</v>
+      </c>
+      <c r="D28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29">
@@ -1027,19 +982,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0</v>
+        <v>0.39683999999999997</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6880183333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>108</v>
+      <c r="E29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
@@ -1047,19 +1002,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00577</v>
+        <v>0.5313216666666667</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
       </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#N/A</v>
+      <c r="D30" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -1067,19 +1022,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0</v>
+        <v>0.234635</v>
       </c>
       <c r="C31" t="n">
-        <v>0.53456</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
@@ -1090,16 +1045,16 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.062135</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
+        <v>0.012601666666666666</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -1107,10 +1062,10 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
+        <v>0.046386666666666666</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08698666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D33" t="e">
         <v>#N/A</v>
@@ -1127,19 +1082,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0</v>
+        <v>0.06401</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1743</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1150,16 +1105,16 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.31798666666666664</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>108</v>
+        <v>0.054378333333333334</v>
+      </c>
+      <c r="D35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36">
@@ -1167,10 +1122,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5628783333333334</v>
+        <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>0.12021166666666666</v>
       </c>
       <c r="D36" t="e">
         <v>#N/A</v>
@@ -1190,16 +1145,16 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.39683999999999997</v>
-      </c>
-      <c r="D37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F37" t="e">
-        <v>#N/A</v>
+        <v>0.07741333333333333</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -1210,16 +1165,16 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5313216666666667</v>
+        <v>0.015776666666666668</v>
       </c>
       <c r="D38" t="n">
-        <v>1.84</v>
+        <v>3.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -1227,10 +1182,10 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>0.041755</v>
       </c>
       <c r="C39" t="n">
-        <v>0.234635</v>
+        <v>0.0</v>
       </c>
       <c r="D39" t="e">
         <v>#N/A</v>
@@ -1247,19 +1202,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>0.06213</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07933833333333333</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41">
@@ -1267,19 +1222,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>0.054378333333333334</v>
+        <v>0.6104816666666666</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
       </c>
-      <c r="D41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F41" t="e">
-        <v>#N/A</v>
+      <c r="D41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -1287,19 +1242,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>0.012601666666666666</v>
+        <v>0.07575333333333334</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
       </c>
-      <c r="D42" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
+      <c r="D42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43">
@@ -1307,19 +1262,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>0.22517333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.046386666666666666</v>
-      </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F43" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -1327,19 +1282,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>0.40307</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06401</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45">
@@ -1347,10 +1302,10 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>0.07102166666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06977166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D45" t="e">
         <v>#N/A</v>
@@ -1367,10 +1322,10 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12021166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>0.01892</v>
       </c>
       <c r="D46" t="e">
         <v>#N/A</v>
@@ -1387,19 +1342,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>0.075615</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173695</v>
-      </c>
-      <c r="D47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F47" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -1407,19 +1362,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07741333333333333</v>
+        <v>0.21901833333333334</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.26</v>
+        <v>1.04</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -1427,19 +1382,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>0.015776666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>0.016516666666666666</v>
       </c>
       <c r="D49" t="n">
-        <v>3.0</v>
+        <v>2.19</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -1447,10 +1402,10 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>0.43161666666666665</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04521</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="e">
         <v>#N/A</v>
@@ -1467,19 +1422,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>0.1949</v>
       </c>
       <c r="C51" t="n">
-        <v>0.041755</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F51" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -1487,19 +1442,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>0.066645</v>
+        <v>0.09793833333333334</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
       </c>
-      <c r="D52" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>108</v>
+      <c r="D52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53">
@@ -1507,10 +1462,10 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0</v>
+        <v>0.08324833333333334</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06213</v>
+        <v>0.0</v>
       </c>
       <c r="D53" t="e">
         <v>#N/A</v>
@@ -1527,19 +1482,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0</v>
+        <v>0.46352333333333334</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6104816666666666</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55">
@@ -1550,7 +1505,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07575333333333334</v>
+        <v>0.03666166666666667</v>
       </c>
       <c r="D55" t="e">
         <v>#N/A</v>
@@ -1567,10 +1522,10 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0</v>
+        <v>0.11217333333333333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.039983333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="D56" t="e">
         <v>#N/A</v>
@@ -1587,19 +1542,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0</v>
+        <v>0.5295966666666666</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22517333333333334</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58">
@@ -1610,16 +1565,16 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.40307</v>
-      </c>
-      <c r="D58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F58" t="e">
-        <v>#N/A</v>
+        <v>0.025691666666666668</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59">
@@ -1630,16 +1585,16 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07102166666666666</v>
-      </c>
-      <c r="D59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F59" t="e">
-        <v>#N/A</v>
+        <v>0.013151666666666666</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60">
@@ -1647,19 +1602,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.113205</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>0.01367</v>
       </c>
       <c r="D60" t="n">
-        <v>2.72</v>
+        <v>3.17</v>
       </c>
       <c r="E60" t="n">
         <v>0.0</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -1667,10 +1622,10 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01892</v>
+        <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>0.04785166666666667</v>
       </c>
       <c r="D61" t="e">
         <v>#N/A</v>
@@ -1687,19 +1642,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0</v>
+        <v>0.06961</v>
       </c>
       <c r="C62" t="n">
-        <v>0.075615</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3.53</v>
+        <v>0.0</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
@@ -1710,16 +1665,16 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21901833333333334</v>
+        <v>0.016733333333333333</v>
       </c>
       <c r="D63" t="n">
-        <v>1.04</v>
+        <v>4.37</v>
       </c>
       <c r="E63" t="n">
         <v>0.0</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -1727,19 +1682,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>0.016516666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>108</v>
+        <v>0.032665</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65">
@@ -1747,19 +1702,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0</v>
+        <v>0.6572</v>
       </c>
       <c r="C65" t="n">
-        <v>0.43161666666666665</v>
-      </c>
-      <c r="D65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F65" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -1770,16 +1725,16 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1949</v>
+        <v>0.00724</v>
       </c>
       <c r="D66" t="n">
-        <v>7.13</v>
+        <v>3.86</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
@@ -1787,19 +1742,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0</v>
+        <v>0.38645</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09793833333333334</v>
-      </c>
-      <c r="D67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F67" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68">
@@ -1810,7 +1765,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08324833333333334</v>
+        <v>0.11977499999999999</v>
       </c>
       <c r="D68" t="e">
         <v>#N/A</v>
@@ -1830,7 +1785,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.46352333333333334</v>
+        <v>0.45121666666666665</v>
       </c>
       <c r="D69" t="e">
         <v>#N/A</v>
@@ -1847,19 +1802,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03666166666666667</v>
+        <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F70" t="e">
-        <v>#N/A</v>
+        <v>0.012541666666666666</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71">
@@ -1867,19 +1822,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0</v>
+        <v>0.787555</v>
       </c>
       <c r="C71" t="n">
-        <v>0.11217333333333333</v>
-      </c>
-      <c r="D71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F71" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -1890,16 +1845,16 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5295966666666666</v>
-      </c>
-      <c r="D72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F72" t="e">
-        <v>#N/A</v>
+        <v>0.014903333333333334</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -1907,19 +1862,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>0.025691666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>108</v>
+        <v>0.13636666666666666</v>
+      </c>
+      <c r="D73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F73" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74">
@@ -1927,19 +1882,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>0.013151666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>0.011725</v>
       </c>
       <c r="D74" t="n">
-        <v>3.17</v>
+        <v>4.95</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
@@ -1947,19 +1902,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01367</v>
+        <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0</v>
+        <v>0.02348</v>
       </c>
       <c r="D75" t="n">
-        <v>3.17</v>
+        <v>4.95</v>
       </c>
       <c r="E75" t="n">
         <v>0.0</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -1967,7 +1922,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04785166666666667</v>
+        <v>0.03630833333333333</v>
       </c>
       <c r="C76" t="n">
         <v>0.0</v>
@@ -1990,16 +1945,16 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06961</v>
-      </c>
-      <c r="D77" t="e">
-        <v>#N/A</v>
+        <v>0.011851666666666667</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.71</v>
       </c>
       <c r="E77" t="n">
         <v>0.0</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
@@ -2007,19 +1962,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>0.016733333333333333</v>
+        <v>2.024775</v>
       </c>
       <c r="C78" t="n">
         <v>0.0</v>
       </c>
-      <c r="D78" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>108</v>
+      <c r="D78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F78" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79">
@@ -2027,7 +1982,7 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>0.032665</v>
+        <v>0.16669333333333333</v>
       </c>
       <c r="C79" t="n">
         <v>0.0</v>
@@ -2050,16 +2005,16 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6572</v>
+        <v>0.12718833333333332</v>
       </c>
       <c r="D80" t="n">
-        <v>5.13</v>
+        <v>3.97</v>
       </c>
       <c r="E80" t="n">
         <v>0.0</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
@@ -2067,19 +2022,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>0.00724</v>
+        <v>0.04603666666666666</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
       </c>
       <c r="D81" t="n">
-        <v>3.86</v>
+        <v>5.77</v>
       </c>
       <c r="E81" t="n">
         <v>0.0</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
@@ -2087,19 +2042,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0</v>
+        <v>0.5112416666666667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38645</v>
+        <v>0.0</v>
       </c>
       <c r="D82" t="n">
-        <v>8.73</v>
+        <v>7.25</v>
       </c>
       <c r="E82" t="n">
         <v>0.0</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
@@ -2107,19 +2062,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>0.11977499999999999</v>
+        <v>0.02048</v>
       </c>
       <c r="C83" t="n">
         <v>0.0</v>
       </c>
-      <c r="D83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F83" t="e">
-        <v>#N/A</v>
+      <c r="D83" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84">
@@ -2127,7 +2082,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>0.45121666666666665</v>
+        <v>0.14165166666666668</v>
       </c>
       <c r="C84" t="n">
         <v>0.0</v>
@@ -2147,19 +2102,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>0.012541666666666666</v>
+        <v>0.44713833333333336</v>
       </c>
       <c r="C85" t="n">
         <v>0.0</v>
       </c>
-      <c r="D85" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>108</v>
+      <c r="D85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86">
@@ -2167,359 +2122,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="C86" t="n">
-        <v>0.787555</v>
+        <v>0.0</v>
       </c>
       <c r="D86" t="n">
-        <v>5.03</v>
+        <v>9.21</v>
       </c>
       <c r="E86" t="n">
         <v>0.0</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.15058166666666667</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.014903333333333334</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.03979833333333333</v>
-      </c>
-      <c r="D89" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.13636666666666666</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F90" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.011725</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.02348</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.03630833333333333</v>
-      </c>
-      <c r="D93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F93" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.011851666666666667</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.024775</v>
-      </c>
-      <c r="D95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F95" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.16669333333333333</v>
-      </c>
-      <c r="D96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F96" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.12718833333333332</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.04603666666666666</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.5112416666666667</v>
-      </c>
-      <c r="D99" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.02048</v>
-      </c>
-      <c r="D100" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.14165166666666668</v>
-      </c>
-      <c r="D101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F101" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.44713833333333336</v>
-      </c>
-      <c r="D102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F102" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.06933333333333333</v>
-      </c>
-      <c r="D103" t="n">
-        <v>9.21</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2540,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2557,7 +2172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -2577,13 +2192,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.016088333333333333</v>
+        <v>7.5872</v>
       </c>
       <c r="D3" t="e">
         <v>#N/A</v>
@@ -2597,13 +2212,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.5872</v>
+        <v>0.10934666666666668</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
@@ -2617,13 +2232,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10934666666666668</v>
+        <v>0.15388833333333332</v>
       </c>
       <c r="D5" t="e">
         <v>#N/A</v>
@@ -2637,33 +2252,33 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.022058333333333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
+        <v>0.044006666666666666</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15388833333333332</v>
+        <v>2.468558333333333</v>
       </c>
       <c r="D7" t="e">
         <v>#N/A</v>
@@ -2677,33 +2292,33 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007343333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
+        <v>1.61605</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04915166666666667</v>
+        <v>0.29528333333333334</v>
       </c>
       <c r="D9" t="e">
         <v>#N/A</v>
@@ -2717,53 +2332,53 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.017403333333333333</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#N/A</v>
+        <v>0.032503333333333335</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.044006666666666666</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#N/A</v>
+        <v>0.03707</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01706</v>
+        <v>1.9779916666666666</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -2777,53 +2392,53 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.468558333333333</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#N/A</v>
+        <v>0.42159</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.61605</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#N/A</v>
+        <v>0.123785</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.29528333333333334</v>
+        <v>0.058986666666666666</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -2837,293 +2452,293 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03707</v>
+        <v>0.03815</v>
       </c>
       <c r="D16" t="n">
-        <v>4.43</v>
+        <v>1.87</v>
       </c>
       <c r="E16" t="n">
-        <v>7.4</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.029151666666666666</v>
+        <v>0.11914999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.9779916666666666</v>
-      </c>
-      <c r="D18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#N/A</v>
+        <v>0.1644</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.012601666666666666</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
+        <v>0.023968333333333335</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.42159</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
+        <v>5.771193333333334</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123785</v>
+        <v>0.02723</v>
       </c>
       <c r="D21" t="n">
-        <v>1.56</v>
+        <v>6.54</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.058986666666666666</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F22" t="e">
-        <v>#N/A</v>
+        <v>0.484825</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03815</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
+        <v>0.13019166666666665</v>
+      </c>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11914999999999999</v>
+        <v>0.07959666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>1.87</v>
+        <v>3.18</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21901833333333334</v>
+        <v>0.153735</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.016516666666666666</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
+        <v>0.016088333333333333</v>
+      </c>
+      <c r="D26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1644</v>
+        <v>0.022058333333333333</v>
       </c>
       <c r="D27" t="n">
-        <v>3.17</v>
+        <v>1.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1</v>
+        <v>11.5</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0</v>
+        <v>0.007343333333333334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.025691666666666668</v>
+        <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.7</v>
+        <v>0.34</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>6.7</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00724</v>
+        <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>108</v>
+        <v>0.04915166666666667</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.023968333333333335</v>
+        <v>0.017403333333333333</v>
       </c>
       <c r="D30" t="e">
         <v>#N/A</v>
@@ -3137,13 +2752,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.771193333333334</v>
+        <v>0.01706</v>
       </c>
       <c r="D31" t="e">
         <v>#N/A</v>
@@ -3157,127 +2772,127 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02723</v>
+        <v>0.012601666666666666</v>
       </c>
       <c r="D32" t="n">
-        <v>6.54</v>
+        <v>4.7</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.484825</v>
+        <v>0.21901833333333334</v>
       </c>
       <c r="D33" t="n">
-        <v>5.32</v>
+        <v>1.04</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13019166666666665</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#N/A</v>
+        <v>0.016516666666666666</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03979833333333333</v>
+        <v>0.025691666666666668</v>
       </c>
       <c r="D35" t="n">
-        <v>3.18</v>
+        <v>3.7</v>
       </c>
       <c r="E35" t="n">
         <v>0.0</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0</v>
+        <v>0.00724</v>
       </c>
       <c r="C36" t="n">
-        <v>0.011725</v>
+        <v>0.0</v>
       </c>
       <c r="D36" t="n">
-        <v>4.95</v>
+        <v>3.86</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153735</v>
+        <v>0.011725</v>
       </c>
       <c r="D37" t="n">
-        <v>2.12</v>
+        <v>4.95</v>
       </c>
       <c r="E37" t="n">
         <v>0.0</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0.44713833333333336</v>
